--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\IAM\biochar\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C234A4-BAF8-478A-9DCB-A74CBF860766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D98B74E-259F-46DE-8055-B2F77A6A015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biochar_land" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>CAPEX</t>
   </si>
@@ -193,6 +193,12 @@
   <si>
     <t>dairy biochar yield</t>
   </si>
+  <si>
+    <t>Low Adoption</t>
+  </si>
+  <si>
+    <t>High Adoption</t>
+  </si>
 </sst>
 </file>
 
@@ -205,7 +211,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +228,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -250,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -263,6 +277,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -546,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C229AC-139E-41F1-AA79-F61EE8EC5D09}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -794,7 +809,7 @@
         <v>32124684.849873938</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:G27" si="0">E22/F22</f>
+        <f t="shared" ref="G22:G26" si="0">E22/F22</f>
         <v>2.5729760767121451E-2</v>
       </c>
       <c r="I22" s="8"/>
@@ -982,10 +997,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248186C2-819E-40A3-BDA6-AECDD5B5B57C}">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:Y7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,6 +1627,1224 @@
         <v>-2425</v>
       </c>
     </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>1975</v>
+      </c>
+      <c r="H13">
+        <v>2015</v>
+      </c>
+      <c r="I13">
+        <v>2020</v>
+      </c>
+      <c r="J13">
+        <v>2025</v>
+      </c>
+      <c r="K13">
+        <v>2030</v>
+      </c>
+      <c r="L13">
+        <v>2035</v>
+      </c>
+      <c r="M13">
+        <v>2040</v>
+      </c>
+      <c r="N13">
+        <v>2045</v>
+      </c>
+      <c r="O13">
+        <v>2050</v>
+      </c>
+      <c r="P13">
+        <v>2055</v>
+      </c>
+      <c r="Q13">
+        <v>2060</v>
+      </c>
+      <c r="R13">
+        <v>2065</v>
+      </c>
+      <c r="S13">
+        <v>2070</v>
+      </c>
+      <c r="T13">
+        <v>2075</v>
+      </c>
+      <c r="U13">
+        <v>2080</v>
+      </c>
+      <c r="V13">
+        <v>2085</v>
+      </c>
+      <c r="W13">
+        <v>2090</v>
+      </c>
+      <c r="X13">
+        <v>2095</v>
+      </c>
+      <c r="Y13">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>7</v>
+      </c>
+      <c r="O14">
+        <v>8</v>
+      </c>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>11</v>
+      </c>
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>13</v>
+      </c>
+      <c r="U14">
+        <v>14</v>
+      </c>
+      <c r="V14">
+        <v>15</v>
+      </c>
+      <c r="W14">
+        <v>16</v>
+      </c>
+      <c r="X14">
+        <v>17</v>
+      </c>
+      <c r="Y14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2.589</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15">
+        <v>2030</v>
+      </c>
+      <c r="G15">
+        <f>G3*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:Y19" si="2">H3*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>1.3577042603628303E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0.17527673360624438</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0.44916774882907534</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>0.63497279004358398</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>0.72121461678532672</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>0.75580839741310024</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>0.76894809755743732</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>0.77383918951475339</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>0.77564633899517421</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>0.77631221345829737</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>0.7765573187859639</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>0.77664750746682576</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>0.77668068866372153</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>0.77669289570057354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <v>2030</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:V19" si="3">G4*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>1.2186099671349551E-3</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>3.1228348701905582E-3</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>4.4146428044745121E-3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>5.0142383554020393E-3</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>5.2547513145754354E-3</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>5.346104965636876E-3</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>5.3801102399635217E-3</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>5.39267443102091E-3</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="3"/>
+        <v>5.3973039174389156E-3</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="3"/>
+        <v>5.3990080100994008E-3</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>5.3996350461192983E-3</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>5.3998657381023512E-3</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>5.3999506074199777E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>3.101</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <v>2030</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>1.6262035192681098E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0.20993941711586087</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0.53799505180338447</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>0.76054485203752564</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>0.86384184111676243</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>0.90527687924991262</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>0.92101508324666392</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>0.92687343634038233</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>0.92903796725532461</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>0.92983552488767107</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>0.93012910218434686</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>0.93023712655644142</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="2"/>
+        <v>0.93027686965863277</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="2"/>
+        <v>0.93029149075607498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>0.2</v>
+      </c>
+      <c r="E18">
+        <v>2030</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>1.5942143497500981E-3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>2.0580968333834798E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>5.2741211140996093E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>7.4558411808902866E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>8.4684914446789994E-2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>8.8746911090607367E-2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>9.0289772752978351E-2</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>9.0864084052717259E-2</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>9.1076279279464253E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>9.1154466161190578E-2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>9.1183246392789893E-2</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="2"/>
+        <v>9.1193836334459266E-2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="2"/>
+        <v>9.1197732465728598E-2</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="2"/>
+        <v>9.1199165814204078E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>1.381</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>2030</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>7.2421382138318597E-3</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>9.3494464700742949E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>0.23959083087406449</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>0.33870120627662786</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>0.38470350937834535</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>0.40315619807937098</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>0.41016505319691809</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>0.41277401341053466</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>0.41373796606888208</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>0.41409315055461909</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>0.41422389233040408</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="2"/>
+        <v>0.41427199992726399</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="2"/>
+        <v>0.41428969912885261</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="2"/>
+        <v>0.41429621049149939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>1975</v>
+      </c>
+      <c r="H23">
+        <v>2015</v>
+      </c>
+      <c r="I23">
+        <v>2020</v>
+      </c>
+      <c r="J23">
+        <v>2025</v>
+      </c>
+      <c r="K23">
+        <v>2030</v>
+      </c>
+      <c r="L23">
+        <v>2035</v>
+      </c>
+      <c r="M23">
+        <v>2040</v>
+      </c>
+      <c r="N23">
+        <v>2045</v>
+      </c>
+      <c r="O23">
+        <v>2050</v>
+      </c>
+      <c r="P23">
+        <v>2055</v>
+      </c>
+      <c r="Q23">
+        <v>2060</v>
+      </c>
+      <c r="R23">
+        <v>2065</v>
+      </c>
+      <c r="S23">
+        <v>2070</v>
+      </c>
+      <c r="T23">
+        <v>2075</v>
+      </c>
+      <c r="U23">
+        <v>2080</v>
+      </c>
+      <c r="V23">
+        <v>2085</v>
+      </c>
+      <c r="W23">
+        <v>2090</v>
+      </c>
+      <c r="X23">
+        <v>2095</v>
+      </c>
+      <c r="Y23">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>8</v>
+      </c>
+      <c r="P24">
+        <v>9</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24">
+        <v>11</v>
+      </c>
+      <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24">
+        <v>13</v>
+      </c>
+      <c r="U24">
+        <v>14</v>
+      </c>
+      <c r="V24">
+        <v>15</v>
+      </c>
+      <c r="W24">
+        <v>16</v>
+      </c>
+      <c r="X24">
+        <v>17</v>
+      </c>
+      <c r="Y24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2.589</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>0.2</v>
+      </c>
+      <c r="E25">
+        <v>2030</v>
+      </c>
+      <c r="G25">
+        <f>G3*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:Y29" si="4">H3*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>3.1679766075132704E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>0.40897904508123684</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>1.0480580806011757</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>1.4816031767683626</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>1.682834105832429</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>1.7635529272972337</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="4"/>
+        <v>1.7942122276340202</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>1.8056247755344244</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="4"/>
+        <v>1.8098414576554063</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>1.8113951647360271</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="4"/>
+        <v>1.8119670771672489</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="4"/>
+        <v>1.8121775174225934</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="4"/>
+        <v>1.8122549402153501</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="4"/>
+        <v>1.8122834233013381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>0.2</v>
+      </c>
+      <c r="E26">
+        <v>2030</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:V29" si="5">G4*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>2.8434232566482281E-3</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>7.2866146971113021E-3</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>1.0300833210440527E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>1.1699889495938092E-2</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>1.2261086400676016E-2</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>1.2474244919819376E-2</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>1.2553590559914883E-2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="5"/>
+        <v>1.2582907005715457E-2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="5"/>
+        <v>1.2593709140690803E-2</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="5"/>
+        <v>1.2597685356898602E-2</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="4"/>
+        <v>1.2599148440945028E-2</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="4"/>
+        <v>1.2599686722238818E-2</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="4"/>
+        <v>1.2599884750646615E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>3.101</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+      <c r="E27">
+        <v>2030</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>3.794474878292256E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>0.48985863993700868</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>1.2553217875412304</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>1.7746046547542265</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>2.0156309626057789</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>2.1123127182497963</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="4"/>
+        <v>2.1490351942422157</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>2.1627046847942255</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="4"/>
+        <v>2.1677552569290905</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="4"/>
+        <v>2.1696162247378989</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="4"/>
+        <v>2.1703012384301426</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="4"/>
+        <v>2.1705532952983631</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="4"/>
+        <v>2.1706460292034766</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="4"/>
+        <v>2.1706801450975082</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>0.2</v>
+      </c>
+      <c r="E28">
+        <v>2030</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>3.7198334827502288E-3</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>4.8022259445614529E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>0.12306282599565756</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>0.17396962755410669</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>0.19759813370917664</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>0.20707612587808386</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="4"/>
+        <v>0.21067613642361613</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>0.21201619612300693</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="4"/>
+        <v>0.21251131831874992</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="4"/>
+        <v>0.21269375437611135</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="4"/>
+        <v>0.21276090824984306</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="4"/>
+        <v>0.21278561811373828</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="4"/>
+        <v>0.21279470908670006</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="4"/>
+        <v>0.21279805356647616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>1.381</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>0.2</v>
+      </c>
+      <c r="E29">
+        <v>2030</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>1.6898322498941007E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>0.21815375096840023</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>0.55904527203948384</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>0.79030281464546492</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>0.89764152188280588</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>0.94069779551853216</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>0.95705179079280878</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>0.96313936462458083</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="4"/>
+        <v>0.96538858749405809</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>0.96621735129411113</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="4"/>
+        <v>0.96652241543760942</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="4"/>
+        <v>0.96663466649694929</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="4"/>
+        <v>0.9666759646339893</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="4"/>
+        <v>0.96669115781349857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\IAM\biochar\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D98B74E-259F-46DE-8055-B2F77A6A015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3211B0B7-E2D9-4DAD-B89B-9266643BABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10815" yWindow="2280" windowWidth="16740" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biochar_land" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>CAPEX</t>
   </si>
@@ -73,12 +73,6 @@
   </si>
   <si>
     <t>Lima, I. M., McAloon, A. &amp; Boateng, A. A. Activated carbon from broiler litter: Process description and cost of production. Biomass and Bioenergy 32, 568â572 (2008).</t>
-  </si>
-  <si>
-    <t>Santos, T. M., Silva, W. R. da, Carregosa, J. de C. &amp; Wisniewski, A. Comprehensive characterization of cattle manure bio-oil for scale-up assessment comparing non-equivalent reactor designs. Journal of Analytical and Applied Pyrolysis 162, 105465 (2022).</t>
-  </si>
-  <si>
-    <t>Atienza-MartÃ­nez, M., Ãbrego, J., Gea, G. &amp; MarÃ­as, F. Pyrolysis of dairy cattle manure: evolution of char characteristics. Journal of Analytical and Applied Pyrolysis 145, 104724 (2020).</t>
   </si>
   <si>
     <t>Poddar, S. &amp; Sarat Chandra Babu, J. Modelling and optimization of a pyrolysis plant using swine and goat manure as feedstock. Renewable Energy 175, 253â269 (2021).</t>
@@ -198,6 +192,9 @@
   </si>
   <si>
     <t>High Adoption</t>
+  </si>
+  <si>
+    <t>Zhou, S., Liang, H., Han, L., Huang, G. and Yang, Z., 2019. The influence of manure feedstock, slow pyrolysis, and hydrothermal temperature on manure thermochemical and combustion properties. Waste management, 88, pp.85-95.</t>
   </si>
 </sst>
 </file>
@@ -561,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C229AC-139E-41F1-AA79-F61EE8EC5D09}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,15 +578,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,10 +594,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,10 +605,10 @@
         <v>0.8</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,7 +627,7 @@
         <v>365</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -641,7 +638,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,10 +646,10 @@
         <v>3600000</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -660,10 +657,10 @@
         <v>10600000</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -671,7 +668,7 @@
         <v>0.26</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,7 +676,7 @@
         <v>0.12</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,34 +684,34 @@
         <v>0.09</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f>1/2.1815</f>
-        <v>0.45840018336007332</v>
+      <c r="A13" s="2">
+        <f>0.465</f>
+        <v>0.46500000000000002</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f>1/2.1052</f>
-        <v>0.47501425042751283</v>
+        <f>0.4301</f>
+        <v>0.43009999999999998</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,22 +720,22 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f>1/2.136</f>
-        <v>0.46816479400749061</v>
+        <f>0.4688</f>
+        <v>0.46879999999999999</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -747,10 +744,10 @@
         <v>0.47001316036849028</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -778,10 +775,10 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -806,11 +803,11 @@
       </c>
       <c r="F22">
         <f>A$3*A$4*A$6*A$7*A13*A$18</f>
-        <v>32124684.849873938</v>
+        <v>32587200</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" ref="G22:G26" si="0">E22/F22</f>
-        <v>2.5729760767121451E-2</v>
+        <v>2.5364574308514607E-2</v>
       </c>
       <c r="I22" s="8"/>
       <c r="L22" s="11"/>
@@ -840,11 +837,11 @@
       </c>
       <c r="F23">
         <f>A$3*A$4*A$6*A$7*A14*A$18</f>
-        <v>33288998.6699601</v>
+        <v>30141408</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>2.4829838352942502E-2</v>
+        <v>2.7422755297510561E-2</v>
       </c>
       <c r="I23" s="8"/>
       <c r="L23" s="11"/>
@@ -908,11 +905,11 @@
       </c>
       <c r="F25">
         <f t="shared" si="5"/>
-        <v>32808988.764044944</v>
+        <v>32853504</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>2.519310978618905E-2</v>
+        <v>2.5158974090143543E-2</v>
       </c>
       <c r="I25" s="8"/>
       <c r="L25" s="11"/>
@@ -999,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248186C2-819E-40A3-BDA6-AECDD5B5B57C}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
@@ -1007,19 +1004,19 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
       <c r="G1">
         <v>1975</v>
@@ -1081,10 +1078,10 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1629,24 +1626,24 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
       </c>
       <c r="G13">
         <v>1975</v>
@@ -1708,10 +1705,10 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2238,24 +2235,24 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
       </c>
       <c r="G23">
         <v>1975</v>
@@ -2317,10 +2314,10 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\IAM\biochar\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3211B0B7-E2D9-4DAD-B89B-9266643BABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EB73EE-0101-41C2-A32F-077E549CA5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10815" yWindow="2280" windowWidth="16740" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17430" yWindow="0" windowWidth="11475" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biochar_land" sheetId="2" r:id="rId1"/>
@@ -559,7 +559,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\IAM\biochar\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EB73EE-0101-41C2-A32F-077E549CA5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF6A8A7-B909-4A51-8FC4-1E80BCDF66AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17430" yWindow="0" windowWidth="11475" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
